--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -52,15 +52,15 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -76,18 +76,18 @@
     <t>loves</t>
   </si>
   <si>
+    <t>beautifully</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>beautifully</t>
+    <t>love</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
@@ -100,241 +100,274 @@
     <t>beautiful</t>
   </si>
   <si>
-    <t>delicious</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>wedding</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>day</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>always</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>w</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>worth</t>
   </si>
   <si>
     <t>makes</t>
@@ -343,100 +376,67 @@
     <t>far</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>food</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>fast</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>ox</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>purchased</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -869,13 +869,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -887,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -919,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -969,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1019,13 +1019,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3953488372093023</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1069,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3232323232323233</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8761609907120743</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.32</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8560371517027864</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="M8">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2830188679245283</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
@@ -1219,37 +1219,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2435897435897436</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8260869565217391</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1345,13 +1345,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7894736842105263</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1371,13 +1371,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7489177489177489</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L14">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1397,13 +1397,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7333333333333333</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1423,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7037037037037037</v>
+        <v>0.6847457627118644</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1449,13 +1449,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6623376623376623</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1475,13 +1475,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6542372881355932</v>
+        <v>0.65625</v>
       </c>
       <c r="L18">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1501,13 +1501,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1527,13 +1527,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6301369863013698</v>
+        <v>0.6356340288924559</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>792</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>792</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1553,13 +1553,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6274509803921569</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1579,13 +1579,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1605,13 +1605,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6235955056179775</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L23">
-        <v>777</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>777</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>469</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1631,13 +1631,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1657,13 +1657,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1683,13 +1683,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6056338028169014</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1709,13 +1709,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.59375</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1735,13 +1735,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5828571428571429</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L28">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1761,13 +1761,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1787,13 +1787,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5735294117647058</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1813,13 +1813,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5576923076923077</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L31">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1839,13 +1839,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5568862275449101</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L32">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M32">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1865,13 +1865,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1891,13 +1891,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5538461538461539</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1917,13 +1917,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.543859649122807</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1946,10 +1946,10 @@
         <v>0.5428571428571428</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1969,13 +1969,13 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.5428571428571428</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1995,13 +1995,13 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.525</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2021,13 +2021,13 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.5180722891566265</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2047,13 +2047,13 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.5128205128205128</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2073,13 +2073,13 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.5128205128205128</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L41">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2099,13 +2099,13 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.5102040816326531</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2125,13 +2125,13 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.5079365079365079</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2151,13 +2151,13 @@
         <v>59</v>
       </c>
       <c r="K44">
-        <v>0.45</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L44">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2177,13 +2177,13 @@
         <v>60</v>
       </c>
       <c r="K45">
-        <v>0.4473684210526316</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2203,13 +2203,13 @@
         <v>61</v>
       </c>
       <c r="K46">
-        <v>0.4457831325301205</v>
+        <v>0.45</v>
       </c>
       <c r="L46">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2229,13 +2229,13 @@
         <v>62</v>
       </c>
       <c r="K47">
-        <v>0.4444444444444444</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2255,13 +2255,13 @@
         <v>63</v>
       </c>
       <c r="K48">
-        <v>0.4444444444444444</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2281,13 +2281,13 @@
         <v>64</v>
       </c>
       <c r="K49">
-        <v>0.4354838709677419</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="M49">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2307,13 +2307,13 @@
         <v>65</v>
       </c>
       <c r="K50">
-        <v>0.425531914893617</v>
+        <v>0.4</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2333,13 +2333,13 @@
         <v>66</v>
       </c>
       <c r="K51">
-        <v>0.4135338345864661</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L51">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2359,13 +2359,13 @@
         <v>67</v>
       </c>
       <c r="K52">
-        <v>0.4102564102564102</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2385,13 +2385,13 @@
         <v>68</v>
       </c>
       <c r="K53">
-        <v>0.3947368421052632</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2411,13 +2411,13 @@
         <v>69</v>
       </c>
       <c r="K54">
-        <v>0.3934426229508197</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2437,13 +2437,13 @@
         <v>70</v>
       </c>
       <c r="K55">
-        <v>0.3813229571984436</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L55">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2463,13 +2463,13 @@
         <v>71</v>
       </c>
       <c r="K56">
-        <v>0.3809523809523809</v>
+        <v>0.375</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2489,13 +2489,13 @@
         <v>72</v>
       </c>
       <c r="K57">
-        <v>0.3676470588235294</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2515,13 +2515,13 @@
         <v>73</v>
       </c>
       <c r="K58">
-        <v>0.3673469387755102</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2541,13 +2541,13 @@
         <v>74</v>
       </c>
       <c r="K59">
-        <v>0.3658536585365854</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2567,13 +2567,13 @@
         <v>75</v>
       </c>
       <c r="K60">
-        <v>0.35</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2593,13 +2593,13 @@
         <v>76</v>
       </c>
       <c r="K61">
-        <v>0.3431372549019608</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L61">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>268</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2619,13 +2619,13 @@
         <v>77</v>
       </c>
       <c r="K62">
-        <v>0.3423423423423423</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L62">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2645,13 +2645,13 @@
         <v>78</v>
       </c>
       <c r="K63">
-        <v>0.3214285714285715</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2671,13 +2671,13 @@
         <v>79</v>
       </c>
       <c r="K64">
-        <v>0.3164383561643835</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L64">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="M64">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>499</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2697,13 +2697,13 @@
         <v>80</v>
       </c>
       <c r="K65">
-        <v>0.3093525179856115</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L65">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2723,13 +2723,13 @@
         <v>81</v>
       </c>
       <c r="K66">
-        <v>0.3090909090909091</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2749,13 +2749,13 @@
         <v>82</v>
       </c>
       <c r="K67">
-        <v>0.3069306930693069</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L67">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>70</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2775,13 +2775,13 @@
         <v>83</v>
       </c>
       <c r="K68">
-        <v>0.2976190476190476</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2801,13 +2801,13 @@
         <v>84</v>
       </c>
       <c r="K69">
-        <v>0.2932330827067669</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L69">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M69">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2827,13 +2827,13 @@
         <v>85</v>
       </c>
       <c r="K70">
-        <v>0.2777777777777778</v>
+        <v>0.2805755395683453</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M70">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2853,13 +2853,13 @@
         <v>86</v>
       </c>
       <c r="K71">
-        <v>0.2649006622516556</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="L71">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2879,13 +2879,13 @@
         <v>87</v>
       </c>
       <c r="K72">
-        <v>0.2631578947368421</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L72">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M72">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2905,13 +2905,13 @@
         <v>88</v>
       </c>
       <c r="K73">
-        <v>0.25</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2931,13 +2931,13 @@
         <v>89</v>
       </c>
       <c r="K74">
-        <v>0.2432432432432433</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M74">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2957,13 +2957,13 @@
         <v>90</v>
       </c>
       <c r="K75">
-        <v>0.2389666307857912</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L75">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="M75">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>707</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2983,13 +2983,13 @@
         <v>91</v>
       </c>
       <c r="K76">
-        <v>0.2235294117647059</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="L76">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M76">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3009,25 +3009,25 @@
         <v>92</v>
       </c>
       <c r="K77">
-        <v>0.2232142857142857</v>
+        <v>0.2421959095801938</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>87</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3035,13 +3035,13 @@
         <v>93</v>
       </c>
       <c r="K78">
-        <v>0.2222222222222222</v>
+        <v>0.24</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3061,13 +3061,13 @@
         <v>94</v>
       </c>
       <c r="K79">
-        <v>0.2222222222222222</v>
+        <v>0.234375</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3087,13 +3087,13 @@
         <v>95</v>
       </c>
       <c r="K80">
-        <v>0.2117647058823529</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3113,25 +3113,25 @@
         <v>96</v>
       </c>
       <c r="K81">
-        <v>0.2013422818791946</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L81">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M81">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3139,13 +3139,13 @@
         <v>97</v>
       </c>
       <c r="K82">
-        <v>0.2</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="M82">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>84</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3165,13 +3165,13 @@
         <v>98</v>
       </c>
       <c r="K83">
-        <v>0.1973684210526316</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3191,13 +3191,13 @@
         <v>99</v>
       </c>
       <c r="K84">
-        <v>0.1912225705329154</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L84">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M84">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>258</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3217,13 +3217,13 @@
         <v>100</v>
       </c>
       <c r="K85">
-        <v>0.1890243902439024</v>
+        <v>0.2</v>
       </c>
       <c r="L85">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>133</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3243,13 +3243,13 @@
         <v>101</v>
       </c>
       <c r="K86">
-        <v>0.188034188034188</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L86">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3269,13 +3269,13 @@
         <v>102</v>
       </c>
       <c r="K87">
-        <v>0.1834862385321101</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3295,13 +3295,13 @@
         <v>103</v>
       </c>
       <c r="K88">
-        <v>0.1801324503311258</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L88">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="M88">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>619</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3321,13 +3321,13 @@
         <v>104</v>
       </c>
       <c r="K89">
-        <v>0.18</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3347,25 +3347,25 @@
         <v>105</v>
       </c>
       <c r="K90">
-        <v>0.175416133162612</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L90">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M90">
         <v>138</v>
       </c>
       <c r="N90">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>644</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3373,13 +3373,13 @@
         <v>106</v>
       </c>
       <c r="K91">
-        <v>0.1630434782608696</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L91">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="M91">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>77</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3399,13 +3399,13 @@
         <v>107</v>
       </c>
       <c r="K92">
-        <v>0.1623616236162362</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L92">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M92">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>227</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3425,13 +3425,13 @@
         <v>108</v>
       </c>
       <c r="K93">
-        <v>0.1557377049180328</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3451,25 +3451,25 @@
         <v>109</v>
       </c>
       <c r="K94">
-        <v>0.1536388140161725</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L94">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M94">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3503,25 +3503,25 @@
         <v>111</v>
       </c>
       <c r="K96">
-        <v>0.137546468401487</v>
+        <v>0.15</v>
       </c>
       <c r="L96">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M96">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N96">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>232</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3529,13 +3529,13 @@
         <v>112</v>
       </c>
       <c r="K97">
-        <v>0.1355932203389831</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L97">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M97">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3555,13 +3555,13 @@
         <v>113</v>
       </c>
       <c r="K98">
-        <v>0.1307692307692308</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L98">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M98">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3581,13 +3581,13 @@
         <v>114</v>
       </c>
       <c r="K99">
-        <v>0.1295454545454545</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L99">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M99">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3607,13 +3607,13 @@
         <v>115</v>
       </c>
       <c r="K100">
-        <v>0.126984126984127</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L100">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M100">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>110</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3633,13 +3633,13 @@
         <v>116</v>
       </c>
       <c r="K101">
-        <v>0.1237113402061856</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L101">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M101">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>255</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3659,13 +3659,13 @@
         <v>117</v>
       </c>
       <c r="K102">
-        <v>0.1206140350877193</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L102">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M102">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>401</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3685,13 +3685,13 @@
         <v>118</v>
       </c>
       <c r="K103">
-        <v>0.1193317422434367</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L103">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M103">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>369</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3711,13 +3711,13 @@
         <v>119</v>
       </c>
       <c r="K104">
-        <v>0.1192214111922141</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L104">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M104">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>362</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3737,13 +3737,13 @@
         <v>120</v>
       </c>
       <c r="K105">
-        <v>0.1182266009852217</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L105">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M105">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>179</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3763,13 +3763,13 @@
         <v>121</v>
       </c>
       <c r="K106">
-        <v>0.1176470588235294</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L106">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="M106">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>210</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3789,13 +3789,13 @@
         <v>122</v>
       </c>
       <c r="K107">
-        <v>0.1165644171779141</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L107">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M107">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3815,25 +3815,25 @@
         <v>123</v>
       </c>
       <c r="K108">
-        <v>0.1118881118881119</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L108">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N108">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>127</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3841,13 +3841,13 @@
         <v>124</v>
       </c>
       <c r="K109">
-        <v>0.108974358974359</v>
+        <v>0.116945107398568</v>
       </c>
       <c r="L109">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M109">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>139</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3867,13 +3867,13 @@
         <v>125</v>
       </c>
       <c r="K110">
-        <v>0.103030303030303</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L110">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M110">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3893,25 +3893,25 @@
         <v>126</v>
       </c>
       <c r="K111">
-        <v>0.09433962264150944</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M111">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N111">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3919,13 +3919,13 @@
         <v>127</v>
       </c>
       <c r="K112">
-        <v>0.08108108108108109</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3945,25 +3945,25 @@
         <v>128</v>
       </c>
       <c r="K113">
-        <v>0.08045977011494253</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L113">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M113">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N113">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>640</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3971,25 +3971,25 @@
         <v>129</v>
       </c>
       <c r="K114">
-        <v>0.07749766573295985</v>
+        <v>0.08895265423242468</v>
       </c>
       <c r="L114">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M114">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="N114">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O114">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>988</v>
+        <v>635</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -3997,25 +3997,25 @@
         <v>130</v>
       </c>
       <c r="K115">
-        <v>0.07729468599033816</v>
+        <v>0.07850467289719626</v>
       </c>
       <c r="L115">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="N115">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O115">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>191</v>
+        <v>986</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4049,13 +4049,13 @@
         <v>132</v>
       </c>
       <c r="K117">
-        <v>0.07103825136612021</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L117">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M117">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4101,25 +4101,25 @@
         <v>134</v>
       </c>
       <c r="K119">
-        <v>0.06060606060606061</v>
+        <v>0.06038647342995169</v>
       </c>
       <c r="L119">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M119">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N119">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>279</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4127,25 +4127,25 @@
         <v>135</v>
       </c>
       <c r="K120">
-        <v>0.05719557195571956</v>
+        <v>0.05914972273567468</v>
       </c>
       <c r="L120">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M120">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4153,25 +4153,25 @@
         <v>136</v>
       </c>
       <c r="K121">
-        <v>0.05583756345177665</v>
+        <v>0.0576271186440678</v>
       </c>
       <c r="L121">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M121">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121">
-        <v>372</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4179,25 +4179,25 @@
         <v>137</v>
       </c>
       <c r="K122">
-        <v>0.05566218809980806</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L122">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M122">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N122">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>492</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4205,25 +4205,25 @@
         <v>138</v>
       </c>
       <c r="K123">
-        <v>0.0462287104622871</v>
+        <v>0.0467032967032967</v>
       </c>
       <c r="L123">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M123">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N123">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O123">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4231,13 +4231,13 @@
         <v>139</v>
       </c>
       <c r="K124">
-        <v>0.04395604395604396</v>
+        <v>0.04246100519930676</v>
       </c>
       <c r="L124">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M124">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N124">
         <v>0.9399999999999999</v>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>348</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4257,25 +4257,25 @@
         <v>140</v>
       </c>
       <c r="K125">
-        <v>0.04329004329004329</v>
+        <v>0.04230769230769231</v>
       </c>
       <c r="L125">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M125">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N125">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O125">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>1105</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4283,25 +4283,25 @@
         <v>141</v>
       </c>
       <c r="K126">
-        <v>0.02228047182175623</v>
+        <v>0.02236842105263158</v>
       </c>
       <c r="L126">
         <v>17</v>
       </c>
       <c r="M126">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N126">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="O126">
-        <v>0.1899999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
